--- a/Outputs/Table_Note9_update_2020-12-09.xlsx
+++ b/Outputs/Table_Note9_update_2020-12-09.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,21 @@
           <t>upr_r</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R2_mar</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R2_con</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -407,14 +422,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-17.4976</t>
-        </is>
-      </c>
-      <c r="E2">
-        <v>-32.03615</v>
-      </c>
-      <c r="F2">
-        <v>-2.61214</v>
+          <t>-17.50463</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-31.96606</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2.19188</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marginal R2 </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conditional R2 </t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -435,14 +464,18 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.05821</t>
-        </is>
-      </c>
-      <c r="E3">
-        <v>-0.16069</v>
-      </c>
-      <c r="F3">
-        <v>0.04118</v>
+          <t>-0.05899</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-0.15647</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -463,14 +496,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00724</t>
-        </is>
-      </c>
-      <c r="E4">
-        <v>-0.00019</v>
-      </c>
-      <c r="F4">
-        <v>0.01453</v>
+          <t>0.00723</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-0.00041</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.01447</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -491,7 +528,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>43%</t>
         </is>
       </c>
     </row>
@@ -513,7 +560,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -530,10 +587,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residual </t>
+          <t>Residual</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>64%</t>
         </is>
@@ -557,14 +624,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-18.655</t>
-        </is>
-      </c>
-      <c r="E8">
-        <v>-43.958</v>
-      </c>
-      <c r="F8">
-        <v>5.572</v>
+          <t>-18.845</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-43.537</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.257</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marginal R2 </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conditional R2 </t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -585,14 +666,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.116</t>
-        </is>
-      </c>
-      <c r="E9">
-        <v>-0.251</v>
-      </c>
-      <c r="F9">
-        <v>0.024</v>
+          <t>-0.117</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-0.257</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -616,11 +701,15 @@
           <t>0.008</t>
         </is>
       </c>
-      <c r="E10">
-        <v>-0.004</v>
-      </c>
-      <c r="F10">
-        <v>0.021</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -641,7 +730,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>32%</t>
         </is>
       </c>
     </row>
@@ -666,6 +765,16 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -680,12 +789,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residual </t>
+          <t>Residual</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>77%</t>
         </is>
       </c>
     </row>
@@ -707,14 +826,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-13.783</t>
-        </is>
-      </c>
-      <c r="E14">
-        <v>-31.835</v>
-      </c>
-      <c r="F14">
-        <v>3.807</v>
+          <t>-13.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-31.093</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.369</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marginal R2 </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conditional R2 </t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -735,14 +868,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.067</t>
-        </is>
-      </c>
-      <c r="E15">
-        <v>-0.17</v>
-      </c>
-      <c r="F15">
-        <v>0.035</v>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-0.171</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -766,11 +903,15 @@
           <t>0.005</t>
         </is>
       </c>
-      <c r="E16">
-        <v>-0.003</v>
-      </c>
-      <c r="F16">
-        <v>0.014</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-0.003</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -791,7 +932,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>32%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>42%</t>
         </is>
       </c>
     </row>
@@ -813,6 +964,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1%</t>
         </is>
       </c>
@@ -830,10 +991,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residual </t>
+          <t>Residual</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>67%</t>
         </is>
@@ -857,14 +1028,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-19.152</t>
-        </is>
-      </c>
-      <c r="E20">
-        <v>-47.549</v>
-      </c>
-      <c r="F20">
-        <v>8.536</v>
+          <t>-18.802</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-47.665</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.734</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marginal R2 </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conditional R2 </t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -885,14 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-0.166</t>
-        </is>
-      </c>
-      <c r="E21">
-        <v>-0.309</v>
-      </c>
-      <c r="F21">
-        <v>-0.021</v>
+          <t>-0.163</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-0.311</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -916,11 +1105,15 @@
           <t>0.008</t>
         </is>
       </c>
-      <c r="E22">
-        <v>-0.006</v>
-      </c>
-      <c r="F22">
-        <v>0.022</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-0.006</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -941,7 +1134,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>40%</t>
         </is>
       </c>
     </row>
@@ -966,6 +1169,16 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -980,12 +1193,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residual </t>
+          <t>Residual</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>75%</t>
         </is>
       </c>
     </row>
